--- a/data-science/the-state-of-our-world-in-2024/resources/Indicator_List.xlsx
+++ b/data-science/the-state-of-our-world-in-2024/resources/Indicator_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Professional Projects\A Journey Through Data Science\Guided Projects\data-science\the-state-of-our-world-in-2023\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Professional Projects\A Journey Through Data Science\Guided Projects\data-science\the-state-of-our-world-in-2024\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169E986-3EEA-4E39-9380-AECB27255473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35856C9-2027-49DE-A6CA-A23DA744C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3F9D3A9-BB54-4DB9-8C51-B52D23334943}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="458">
   <si>
     <t>Subject</t>
   </si>
@@ -1411,6 +1411,9 @@
   </si>
   <si>
     <t>UNESCO</t>
+  </si>
+  <si>
+    <t>Macroeconomic Overview</t>
   </si>
 </sst>
 </file>
@@ -6926,8 +6929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB559E6-B269-4BF5-84E4-C6BF53ADB224}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G45" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7007,7 +7010,7 @@
         <v>01_01_01</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>436</v>
@@ -7049,7 +7052,7 @@
         <v>01_01_02</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>436</v>
@@ -7091,7 +7094,7 @@
         <v>01_01_03</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>436</v>
@@ -7133,7 +7136,7 @@
         <v>01_01_04</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>436</v>
@@ -7175,7 +7178,7 @@
         <v>01_01_05</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>436</v>
@@ -7217,7 +7220,7 @@
         <v>01_01_06</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>436</v>
@@ -7259,7 +7262,7 @@
         <v>01_01_07</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>436</v>
@@ -7301,7 +7304,7 @@
         <v>01_01_08</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>436</v>
@@ -7343,7 +7346,7 @@
         <v>01_02_01</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
@@ -7380,7 +7383,7 @@
         <v>01_02_02</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -7417,7 +7420,7 @@
         <v>01_02_03</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -7454,7 +7457,7 @@
         <v>01_02_04</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
@@ -7491,7 +7494,7 @@
         <v>01_02_05</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -7525,7 +7528,7 @@
         <v>01_02_06</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
@@ -7556,7 +7559,7 @@
         <v>01_03_01</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>5</v>
@@ -7593,7 +7596,7 @@
         <v>01_03_02</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>5</v>
@@ -7630,7 +7633,7 @@
         <v>01_03_03</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>5</v>
@@ -7664,7 +7667,7 @@
         <v>01_04_01</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>184</v>
@@ -7701,7 +7704,7 @@
         <v>01_04_02</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>184</v>
@@ -7738,7 +7741,7 @@
         <v>01_05_01</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -7775,7 +7778,7 @@
         <v>01_05_02</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
@@ -7812,7 +7815,7 @@
         <v>01_05_03</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
@@ -7849,7 +7852,7 @@
         <v>01_06_01</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>93</v>
@@ -7886,7 +7889,7 @@
         <v>01_06_02</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>93</v>
@@ -7923,7 +7926,7 @@
         <v>01_06_03</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>93</v>
@@ -7960,7 +7963,7 @@
         <v>01_06_04</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>93</v>
@@ -7997,7 +8000,7 @@
         <v>01_07_01</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
@@ -8034,7 +8037,7 @@
         <v>01_07_02</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>9</v>
@@ -8071,7 +8074,7 @@
         <v>01_08_01</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>70</v>
@@ -8108,7 +8111,7 @@
         <v>01_09_01</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>110</v>
@@ -8145,7 +8148,7 @@
         <v>01_09_02</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>110</v>
@@ -8182,7 +8185,7 @@
         <v>01_09_03</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>110</v>
@@ -8219,7 +8222,7 @@
         <v>01_09_04</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>110</v>
@@ -8256,7 +8259,7 @@
         <v>01_09_05</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>110</v>
@@ -8293,7 +8296,7 @@
         <v>01_09_06</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>110</v>
@@ -8330,7 +8333,7 @@
         <v>01_09_07</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>110</v>
@@ -8367,7 +8370,7 @@
         <v>01_10_01</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>441</v>
@@ -8404,7 +8407,7 @@
         <v>01_11_01</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>7</v>
@@ -8440,7 +8443,7 @@
         <v>01_11_02</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>7</v>
@@ -8476,7 +8479,7 @@
         <v>01_11_03</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
@@ -8512,7 +8515,7 @@
         <v>01_12_01</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>71</v>

--- a/data-science/the-state-of-our-world-in-2024/resources/Indicator_List.xlsx
+++ b/data-science/the-state-of-our-world-in-2024/resources/Indicator_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Professional Projects\A Journey Through Data Science\Guided Projects\data-science\the-state-of-our-world-in-2024\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35856C9-2027-49DE-A6CA-A23DA744C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031783B5-2F8F-4B37-82C3-9972C5A19307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3F9D3A9-BB54-4DB9-8C51-B52D23334943}"/>
   </bookViews>
@@ -6929,8 +6929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB559E6-B269-4BF5-84E4-C6BF53ADB224}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
